--- a/code/MMServerEngine/others/table/tables/UnitTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/UnitTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyuzhenelex/Documents/my/SingleServerEngine/code/MMServerEngine/others/table/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="UnitTable" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -29,6 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -38,6 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -93,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1;2|2;4|3:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0;2|5;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +145,10 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2|2;4|3;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,14 +160,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -161,6 +176,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -168,6 +184,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -215,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,12 +274,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -292,12 +309,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -501,46 +518,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="21.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="7.125" customWidth="1"/>
-    <col min="12" max="13" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="68.25" customWidth="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="7.1640625" customWidth="1"/>
+    <col min="12" max="13" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="68.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -549,18 +566,18 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>15</v>
@@ -569,15 +586,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>36</v>
@@ -586,15 +603,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>47</v>
@@ -603,15 +620,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>58</v>
@@ -620,15 +637,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>69</v>
@@ -637,10 +654,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J9" s="1"/>
     </row>
   </sheetData>
@@ -653,16 +670,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -699,12 +716,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/MMServerEngine/others/table/tables/UnitTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/UnitTable.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0;2|5;3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4;2|5;6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +145,13 @@
   </si>
   <si>
     <t>1;2|2;4|3;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>1;2|5;3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +525,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,16 +543,19 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
         <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -557,7 +563,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -566,7 +572,10 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -574,16 +583,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -591,16 +603,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -608,16 +623,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5">
         <v>47</v>
       </c>
       <c r="E5">
         <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -625,16 +643,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>58</v>
       </c>
       <c r="E6">
         <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -642,16 +663,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>69</v>
       </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
